--- a/DataRepo/data/tests/study_doc_versions/consolidated.xlsx
+++ b/DataRepo/data/tests/study_doc_versions/consolidated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/study_doc_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF23DE4-0AFA-EE4E-8FA6-6D6492F0ACC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C76DDC7-8B07-CA42-AA9F-A8F7D6168A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="6600" windowWidth="26840" windowHeight="15940" activeTab="5" xr2:uid="{26BF4920-AA5B-7041-9D13-F7650B478138}"/>
+    <workbookView xWindow="15620" yWindow="6600" windowWidth="26840" windowHeight="15940" activeTab="3" xr2:uid="{26BF4920-AA5B-7041-9D13-F7650B478138}"/>
   </bookViews>
   <sheets>
     <sheet name="Treatments" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="194">
   <si>
     <t>Animal Treatment</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>Tracer Row Group</t>
-  </si>
-  <si>
-    <t>Compound Name</t>
   </si>
   <si>
     <t>Element</t>
@@ -1093,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1118,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
@@ -1428,7 +1425,7 @@
         <v>57</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1441,10 +1438,10 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2469,7 +2466,7 @@
         <v>200</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.2">
@@ -2483,7 +2480,7 @@
         <v>180</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -2500,7 +2497,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -2517,7 +2514,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -2534,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2542,16 +2539,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="5">
         <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2559,16 +2556,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="5">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2576,16 +2573,16 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="5">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2593,16 +2590,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="5">
         <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2610,16 +2607,16 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="5">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
@@ -2627,16 +2624,16 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="5">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2648,8 +2645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7510E2C-7D9D-024D-BB50-C3788286DF66}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2669,19 +2666,19 @@
         <v>71</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>63</v>
@@ -2695,10 +2692,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="D2" s="5">
         <v>13</v>
@@ -2715,10 +2712,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D3" s="5">
         <v>15</v>
@@ -2735,10 +2732,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="5">
         <v>13</v>
@@ -2755,10 +2752,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" s="5">
         <v>15</v>
@@ -2775,10 +2772,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5">
         <v>13</v>
@@ -2795,10 +2792,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="5">
         <v>15</v>
@@ -2815,10 +2812,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="5">
         <v>13</v>
@@ -2835,10 +2832,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D9" s="5">
         <v>15</v>
@@ -2855,10 +2852,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="5">
         <v>13</v>
@@ -2875,10 +2872,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="5">
         <v>15</v>
@@ -2895,10 +2892,10 @@
         <v>6</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="5">
         <v>13</v>
@@ -2907,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
@@ -2915,10 +2912,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5">
         <v>13</v>
@@ -2927,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -2935,10 +2932,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="5">
         <v>13</v>
@@ -2947,7 +2944,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
@@ -2955,10 +2952,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="5">
         <v>13</v>
@@ -2967,7 +2964,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -2975,10 +2972,10 @@
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="5">
         <v>13</v>
@@ -2987,7 +2984,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -2995,10 +2992,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="5">
         <v>13</v>
@@ -3007,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
@@ -3038,16 +3035,16 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -3060,321 +3057,321 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="D22" s="14" t="s">
         <v>187</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="D23" s="14" t="s">
         <v>190</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>192</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3386,7 +3383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A2A9AB-8ACA-D243-8DB9-3D699225DC2D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3401,13 +3398,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>3</v>
@@ -3415,27 +3412,27 @@
     </row>
     <row r="2" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>144</v>
       </c>
       <c r="C2" s="5">
         <v>25</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">

--- a/DataRepo/data/tests/study_doc_versions/consolidated.xlsx
+++ b/DataRepo/data/tests/study_doc_versions/consolidated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/study_doc_versions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C76DDC7-8B07-CA42-AA9F-A8F7D6168A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6668C5-0B26-F445-BC90-B387ED8FA81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="6600" windowWidth="26840" windowHeight="15940" activeTab="3" xr2:uid="{26BF4920-AA5B-7041-9D13-F7650B478138}"/>
+    <workbookView xWindow="15620" yWindow="6600" windowWidth="26840" windowHeight="15940" activeTab="2" xr2:uid="{26BF4920-AA5B-7041-9D13-F7650B478138}"/>
   </bookViews>
   <sheets>
     <sheet name="Treatments" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="195">
   <si>
     <t>Animal Treatment</t>
   </si>
@@ -623,6 +623,9 @@
   </si>
   <si>
     <t>unknown</t>
+  </si>
+  <si>
+    <t>Tracer</t>
   </si>
 </sst>
 </file>
@@ -2417,7 +2420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF31F291-DB34-914C-8BC7-5273F9C47229}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2437,7 +2442,7 @@
         <v>61</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>63</v>
+        <v>194</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>64</v>
@@ -2645,7 +2650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7510E2C-7D9D-024D-BB50-C3788286DF66}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
